--- a/backend/web/uplaod/template/invoice.xlsx
+++ b/backend/web/uplaod/template/invoice.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\主管坐骑\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\new\backend\web\uplaod\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6857FD9-F172-45B2-8A96-2C6170BE4207}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13440" xr2:uid="{1A21709C-F26E-4897-AE0E-F6B34B34E4B3}"/>
   </bookViews>
@@ -47,9 +48,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>账单状态(未缴纳,线下已缴纳)</t>
-  </si>
-  <si>
     <t>2103</t>
   </si>
   <si>
@@ -59,10 +57,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>水漾人家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -92,6 +86,14 @@
   </si>
   <si>
     <t>物业费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单状态(欠费，银行，优惠，政府，现金，刷卡)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +542,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -563,10 +565,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -578,61 +580,61 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/backend/web/uplaod/template/invoice.xlsx
+++ b/backend/web/uplaod/template/invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\new\backend\web\uplaod\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\主管坐骑\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6857FD9-F172-45B2-8A96-2C6170BE4207}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2866C69-DD93-49B8-B861-8ABA07DCE164}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13440" xr2:uid="{1A21709C-F26E-4897-AE0E-F6B34B34E4B3}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>小区</t>
   </si>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2018</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,17 +90,37 @@
   </si>
   <si>
     <t>账单状态(欠费，银行，优惠，政府，现金，刷卡)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +140,13 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -200,7 +223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -223,14 +246,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{628D765F-459E-49DA-9A2B-421C72DAE485}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -539,51 +593,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7448004F-CC6D-473E-BF2D-37A4D230A088}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="5" width="27.75" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="16.625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="21.375" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
+      <c r="J1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -591,26 +652,29 @@
         <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7" t="s">
-        <v>17</v>
+      <c r="I2" s="6"/>
+      <c r="J2" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
@@ -618,23 +682,26 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
